--- a/Project_RSPImageRobot_20200801_0/Documents/Project_RSPImageRobot_20200801_0.xlsx
+++ b/Project_RSPImageRobot_20200801_0/Documents/Project_RSPImageRobot_20200801_0.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/Project_RSPImageRobot_20200801_0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="475" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D56F4D2A-1B89-40FB-ACB3-9E1E9C1B1C70}"/>
+  <xr:revisionPtr revIDLastSave="1084" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70A05894-5DA0-43B0-B21C-6EA4B2B0CA56}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7452" yWindow="996" windowWidth="15180" windowHeight="10188" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="2" r:id="rId1"/>
     <sheet name="System diagram" sheetId="5" r:id="rId2"/>
     <sheet name="sequnces" sheetId="4" r:id="rId3"/>
     <sheet name="flow_lite" sheetId="6" r:id="rId4"/>
-    <sheet name="MotionCommands_ArduinoFW" sheetId="1" r:id="rId5"/>
-    <sheet name="python packages" sheetId="3" r:id="rId6"/>
+    <sheet name="main flow" sheetId="8" r:id="rId5"/>
+    <sheet name="function blocks" sheetId="7" r:id="rId6"/>
+    <sheet name="tasks" sheetId="10" r:id="rId7"/>
+    <sheet name="MotionCommands_ArduinoFW" sheetId="1" r:id="rId8"/>
+    <sheet name="python packages" sheetId="3" r:id="rId9"/>
+    <sheet name="工作表1" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>20200801_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +60,26 @@
 Added sheet "threads"
 Added sheet "system diagram"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200909_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added sheet "flow_lite"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200915_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added sheet "function blocks"
+Modified sheet "flow_lite"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200917_0</t>
   </si>
   <si>
     <t>char</t>
@@ -78,11 +102,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200909_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added sheet "flow_lite"</t>
+    <t>Modified sheet "function blocks"
+Modified sheet "flow_lite"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,12 +127,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,17 +159,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -176,8 +217,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3391987" y="6094549"/>
-          <a:ext cx="1609453" cy="1348741"/>
+          <a:off x="3343001" y="6263278"/>
+          <a:ext cx="1584960" cy="1392283"/>
           <a:chOff x="1673134" y="1183278"/>
           <a:chExt cx="1568632" cy="1430383"/>
         </a:xfrm>
@@ -413,8 +454,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3401241" y="8385266"/>
-          <a:ext cx="1298121" cy="1471203"/>
+          <a:off x="3325041" y="8651966"/>
+          <a:ext cx="1336221" cy="1454875"/>
           <a:chOff x="1673134" y="1183278"/>
           <a:chExt cx="1568632" cy="1430383"/>
         </a:xfrm>
@@ -1952,7 +1993,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>78278</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="854336" cy="264560"/>
+    <xdr:ext cx="881908" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="文字方塊 6">
@@ -1966,8 +2007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7396744" y="1048096"/>
-          <a:ext cx="854336" cy="264560"/>
+          <a:off x="7268094" y="1057992"/>
+          <a:ext cx="881908" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1996,7 +2037,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
-            <a:t>mainLoop()</a:t>
+            <a:t>gameLoop()</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2082,7 +2123,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5031971" y="1025236"/>
+          <a:off x="4942906" y="1035132"/>
           <a:ext cx="771493" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4926,11 +4967,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>87535</xdr:colOff>
+      <xdr:colOff>32117</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>8389</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="854336" cy="264560"/>
+      <xdr:rowOff>160789</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="881908" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="文字方塊 54">
@@ -4944,8 +4985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2264678" y="1184046"/>
-          <a:ext cx="854336" cy="264560"/>
+          <a:off x="2248844" y="1324571"/>
+          <a:ext cx="881908" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4974,7 +5015,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
-            <a:t>mainLoop()</a:t>
+            <a:t>gameLoop()</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5239,7 +5280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5135496" y="2893678"/>
+          <a:off x="5174685" y="2817478"/>
           <a:ext cx="1454244" cy="275909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5269,7 +5310,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>更新使用者動作手勢</a:t>
+            <a:t>更新使用者手勢紀錄</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6037,10 +6078,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>532616</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>154558</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67796</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85978</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="275909"/>
     <xdr:sp macro="" textlink="">
@@ -6056,7 +6097,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2180184" y="4959963"/>
+          <a:off x="2262356" y="5610478"/>
           <a:ext cx="1031051" cy="275909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6208,9 +6249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>178486</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102973</xdr:rowOff>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6225,8 +6266,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1818474" y="1810500"/>
-          <a:ext cx="7580" cy="3866743"/>
+          <a:off x="1803763" y="1844040"/>
+          <a:ext cx="3266" cy="4567646"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6252,15 +6293,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>189412</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>93598</xdr:rowOff>
+      <xdr:colOff>178526</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485247</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>93598</xdr:rowOff>
+      <xdr:colOff>474361</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115370</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6275,8 +6316,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1836980" y="5667868"/>
-          <a:ext cx="845024" cy="0"/>
+          <a:off x="1811383" y="6385541"/>
+          <a:ext cx="840121" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6301,10 +6342,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>539932</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>164375</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254182</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="698140" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -6320,7 +6361,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3261361" y="6826432"/>
+          <a:off x="6331132" y="7860575"/>
           <a:ext cx="698140" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6384,10 +6425,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>524692</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>156754</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238942</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42454</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="883575" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -6403,7 +6444,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4334692" y="6035040"/>
+          <a:off x="7420792" y="7090954"/>
           <a:ext cx="883575" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6442,12 +6483,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>48986</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>126274</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="854336" cy="264560"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11974</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="881908" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="105" name="文字方塊 104">
@@ -6461,8 +6502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2226129" y="6004560"/>
-          <a:ext cx="854336" cy="264560"/>
+          <a:off x="5287736" y="7060474"/>
+          <a:ext cx="881908" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6490,8 +6531,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>game</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
-            <a:t>mainLoop()</a:t>
+            <a:t>Loop()</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6500,16 +6553,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>64226</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330926</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>243944</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>192677</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510644</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>78377</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6524,8 +6577,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3874226" y="6297386"/>
-          <a:ext cx="724004" cy="557348"/>
+          <a:off x="6960326" y="7342415"/>
+          <a:ext cx="732168" cy="546462"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6553,16 +6606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>471352</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185602</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>26127</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>164375</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292827</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6577,8 +6630,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2648495" y="6297386"/>
-          <a:ext cx="643346" cy="529046"/>
+          <a:off x="5710102" y="7342415"/>
+          <a:ext cx="659675" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6606,10 +6659,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>71846</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171995</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338546</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57695</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="467051" cy="275909"/>
     <xdr:sp macro="" textlink="">
@@ -6625,7 +6678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2793275" y="6442166"/>
+          <a:off x="5863046" y="7487195"/>
           <a:ext cx="467051" cy="275909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6665,10 +6718,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>189412</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133895</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>456112</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19595</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024961" cy="459485"/>
     <xdr:sp macro="" textlink="">
@@ -6684,7 +6737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999412" y="6404066"/>
+          <a:off x="7085512" y="7449095"/>
           <a:ext cx="1024961" cy="459485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7989,7 +8042,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>89242</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="275909"/>
+    <xdr:ext cx="1031051" cy="275909"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="文字方塊 56">
@@ -8003,8 +8056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162431" y="4317999"/>
-          <a:ext cx="1172116" cy="275909"/>
+          <a:off x="2147720" y="4399985"/>
+          <a:ext cx="1031051" cy="275909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8032,10 +8085,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>讀取使用者手勢</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            <a:rPr lang="zh-TW" altLang="en-US"/>
+            <a:t>判斷遊戲勝負</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8097,15 +8149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>13730</xdr:rowOff>
+      <xdr:colOff>475185</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>67925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>509192</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>145191</xdr:rowOff>
+      <xdr:colOff>476406</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8120,14 +8172,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2704757" y="5203568"/>
-          <a:ext cx="1192" cy="515893"/>
+          <a:off x="2652328" y="5946211"/>
+          <a:ext cx="1221" cy="438497"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8150,15 +8202,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>260865</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>54919</xdr:rowOff>
+      <xdr:colOff>272839</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>377567</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157892</xdr:rowOff>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20733</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8173,8 +8225,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3006811" y="2938162"/>
-          <a:ext cx="2313459" cy="1448487"/>
+          <a:off x="2994268" y="3136527"/>
+          <a:ext cx="1949127" cy="1390892"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8206,10 +8258,4482 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA2C701-58B3-4BA6-B0C7-7E1ECF99C91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="2438400"/>
+          <a:ext cx="2887980" cy="1402080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1735924" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C2DD14-D7FB-4EB1-9CB0-F6CDEA70F1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5280660" y="3573780"/>
+          <a:ext cx="1735924" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>detectObjectsFromVideo()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44631</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165463</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="文字方塊 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB9A035-F3A3-4387-B1A8-DEF8280DBBBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2239191" y="4927963"/>
+          <a:ext cx="1031051" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>移動機器手掌</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480164</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線單箭頭接點 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3573E08C-ACC6-4F73-81D5-B82C640666A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2656115" y="5301343"/>
+          <a:ext cx="1192" cy="527072"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1257652" cy="459485"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596A0135-B25C-4AE6-8CC6-64DC309FBFDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="464820" y="1485900"/>
+          <a:ext cx="1257652" cy="459485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>啟動串列阜</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>等待使用者輸入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2034540" cy="631711"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACFBB73-9AE3-4EFE-9DC8-FB0CEEF70398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480060" y="2461260"/>
+          <a:ext cx="2034540" cy="631711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>設定執行序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thread_video</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定執行序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thread_game</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2034540" cy="631711"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D73638B-F32E-4C1D-A167-F87C3A050C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="464820" y="3421380"/>
+          <a:ext cx="2034540" cy="631711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>啟動執行序 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thread_video"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>啟動執行序 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thread_game"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線單箭頭接點 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E5DD6A-0B88-4F5B-BDB7-5151474CBE8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1097280" y="1905000"/>
+          <a:ext cx="7620" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線單箭頭接點 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823ACDDF-302A-444F-91DA-08DA88C53A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089660" y="2887980"/>
+          <a:ext cx="7620" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>468087</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A9176E-E1F2-40A7-A02E-1D0A5A9F0DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7478486" y="4920343"/>
+          <a:ext cx="9318172" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>引用套件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391884</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8536291A-E415-41A1-911C-1E7AAE1D7A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467598" y="3635829"/>
+          <a:ext cx="9318172" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>自訂函式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EB9F4C-8AF0-4AAB-8694-1F1703C570A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7456714" y="2329543"/>
+          <a:ext cx="9318172" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>執行緒</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2E5DB2-9307-47CD-9491-25CD73AF7B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2758440" y="1173480"/>
+          <a:ext cx="2209800" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GameLoopDisplay():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDEE09D-77A2-4FED-82F0-E20D92F27181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2758440" y="2118360"/>
+          <a:ext cx="2202180" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GameLoopMotion():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37017860-791A-417D-A332-6807227DAD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2758440" y="3063240"/>
+          <a:ext cx="2186940" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gameLoop():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C314429-7DE0-4020-B1B9-EB5ADDCA57D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2758440" y="4975860"/>
+          <a:ext cx="2156460" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>videoLoop():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B797E2-5003-485D-8241-D2644B81589E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="4015740"/>
+          <a:ext cx="2186940" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>per_frame_function_DataGet():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E837F6-273C-4CA6-86E6-BCAE4DE0E178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="5905500"/>
+          <a:ext cx="2156460" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serialPortSetting():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3118226" cy="1132114"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CBEE0C-B5F6-415A-A965-25D7729BAB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2677886" y="6977744"/>
+          <a:ext cx="3118226" cy="1132114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>serialPortSetting()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thread_video=threading.Thread(target=videoLoop)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thread_Main=threading.Thread(target=gameLoop)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thread_video.start()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="左大括弧 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD70E31-BB3C-4897-A1AE-C8ED98E5C362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1817914" y="1262743"/>
+          <a:ext cx="674915" cy="5377543"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1211614" cy="426142"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文字方塊 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74093B80-9B7C-4F64-A50C-BE9A0EE91CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="979714" y="3385457"/>
+          <a:ext cx="1211614" cy="426142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="1"/>
+            <a:t>函式定義</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="左大括弧 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0854DBBC-C937-4494-A95F-2E8640E7D5A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1709058" y="6988629"/>
+          <a:ext cx="1012371" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="954877" cy="426142"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文字方塊 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AADB433-1FC2-4362-B189-51B47B64EBA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077686" y="7108371"/>
+          <a:ext cx="954877" cy="426142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="1"/>
+            <a:t>主流程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>283027</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB8C0C0-C210-484A-9443-43B63FAC0669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8850084" y="2579916"/>
+          <a:ext cx="3407229" cy="559525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gameLoop():   Thread</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+            <a:t>控制遊戲流程</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>370117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>336371</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>169817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C48C6F1-6332-4F37-AFAD-22FC85278FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12888688" y="2536371"/>
+          <a:ext cx="2143397" cy="572589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>videoLoop():  Thread</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>影像辨識</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9B26A8-F7BA-4244-938C-76EF80A38DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11364686" y="3788228"/>
+          <a:ext cx="1926770" cy="557349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GameLoopDisplay():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>顯示遊戲資訊</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>377734</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130A9A75-4F20-43FA-BB7B-AF8213B51C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14532428" y="3788230"/>
+          <a:ext cx="2173877" cy="572589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>callback for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> imageAI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>per_frame_function_DataGet():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE601D5-6AFA-44B7-B843-92D86D18BDEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8523515" y="3820887"/>
+          <a:ext cx="1621971" cy="587829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GameLoopMotion():</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>控制手掌動作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533398</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A404A0A8-FD8B-4E21-94C7-B74D38299614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14140541" y="5094516"/>
+          <a:ext cx="1469573" cy="631370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1"/>
+            <a:t>imageAI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-keras</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-tensorflow</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>348348</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261259</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043381A3-7A20-4B4A-9D52-0005F72178E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12866919" y="5159830"/>
+          <a:ext cx="1001483" cy="522514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+            <a:t>CV2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>繪圖</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F7FDF4-D406-4C48-AF91-7EADEB37C85E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8654144" y="5138058"/>
+          <a:ext cx="1034142" cy="522513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+            <a:t>serial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>串列阜使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD83C3D-682E-46CA-9572-537942A34988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9797143" y="5148943"/>
+          <a:ext cx="1034142" cy="522513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+            <a:t>pygame</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>音效播放</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>337456</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矩形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB41EE06-AEF4-4ED6-AFBD-827C3F6A9C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10907485" y="5148942"/>
+          <a:ext cx="1404257" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+            <a:t>time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+            <a:t>random</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>亂數生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線單箭頭接點 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3BB1AF-6738-4905-B98D-97433AA7ADEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9285514" y="3091543"/>
+          <a:ext cx="10886" cy="718457"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線單箭頭接點 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F68C8AC-F6DA-4562-8B97-FB5101EBE1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11800113" y="3135086"/>
+          <a:ext cx="10887" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>326573</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線單箭頭接點 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA79C16A-D3C6-4949-B65C-7FF173BFA34A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11201400" y="3145971"/>
+          <a:ext cx="10887" cy="1937658"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線單箭頭接點 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7E7C2B-B4FA-4793-888F-741D91EF535B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9231086" y="4376057"/>
+          <a:ext cx="10886" cy="718457"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線單箭頭接點 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201BBDA9-973D-4C7E-A64B-659288E0C493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10363200" y="3156857"/>
+          <a:ext cx="21771" cy="1926771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線單箭頭接點 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F2F502-0F9F-4D5D-8592-2A1DF8BFFD2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13596257" y="3178629"/>
+          <a:ext cx="21772" cy="1915885"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線單箭頭接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80AA59D-4E10-461F-B516-E81DE655A236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14282058" y="3145971"/>
+          <a:ext cx="0" cy="1915886"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>54431</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線單箭頭接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860043B4-30C4-4CC2-9F60-B0DEA0E4FEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13117286" y="4343399"/>
+          <a:ext cx="2" cy="751115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="橢圓 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A46B7D8-6291-4248-8A19-B9945A9FBA83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9481457" y="7641772"/>
+          <a:ext cx="696686" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+            <a:t>S0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="橢圓 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5E9E9A-332D-490A-B7D1-1EF2E9604692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11625943" y="7848600"/>
+          <a:ext cx="696686" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+            <a:t>S1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="橢圓 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6271D2-7451-4B70-A122-A0704B355EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10308771" y="9361714"/>
+          <a:ext cx="696686" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+            <a:t>S2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線單箭頭接點 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9899FCD-FEDC-4162-994B-CC0A3A22BC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10199914" y="8011886"/>
+          <a:ext cx="1426029" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17716</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>58484</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線單箭頭接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC26D61-8D31-4286-9428-EC4A8008893D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="61" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10903430" y="8545285"/>
+          <a:ext cx="961999" cy="918456"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線單箭頭接點 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4423B4A9-67EA-44FB-A142-40FF4B486C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9949543" y="8360229"/>
+          <a:ext cx="500743" cy="1121229"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="文字方塊 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5A4DAA-8F54-42DF-A366-9E6FD88939E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9285514" y="7391400"/>
+          <a:ext cx="1031051" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>等待遊戲開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文字方塊 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE4B95E-56D5-4582-A745-641B3489B7A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11016343" y="8338457"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>遊戲過程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="文字方塊 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECD58F4-1C4B-4015-8299-37D01BB9A1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10776857" y="9927771"/>
+          <a:ext cx="1031051" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>顯示遊戲結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="文字方塊 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCED698-7673-4038-9798-D3EDD93940E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10428514" y="7805057"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>按任意鍵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="文字方塊 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB87580-4CA2-4CDA-B748-C680FF606097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9557657" y="8958943"/>
+          <a:ext cx="748923" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>按任意鍵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348344</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166551</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="98" name="群組 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354C0BB5-3B2B-4724-8E49-4C446C158122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="14704763">
+          <a:off x="9104268" y="7714161"/>
+          <a:ext cx="438694" cy="533400"/>
+          <a:chOff x="11919858" y="7434943"/>
+          <a:chExt cx="446314" cy="533400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="90" name="直線單箭頭接點 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699972EB-DE24-470B-BB0A-638FA2238329}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="12202886" y="7434943"/>
+            <a:ext cx="163285" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="93" name="直線單箭頭接點 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACCCDDD-AE30-4553-83FD-FF333EFAD0F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="11919858" y="7434943"/>
+            <a:ext cx="446314" cy="424543"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>192133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>126818</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>137704</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="102" name="群組 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A2F4F0-7458-405B-91F6-F84400E314E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="12434333">
+          <a:off x="10029553" y="9793333"/>
+          <a:ext cx="438694" cy="533400"/>
+          <a:chOff x="11919858" y="7434943"/>
+          <a:chExt cx="446314" cy="533400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="103" name="直線單箭頭接點 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41429793-AD62-4BDC-B118-C6CB47B93DFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="12202886" y="7434943"/>
+            <a:ext cx="163285" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="104" name="直線單箭頭接點 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB738B99-E520-4B24-A961-9F28B96AE41A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="11919858" y="7434943"/>
+            <a:ext cx="446314" cy="424543"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -9389,6 +13913,703 @@
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
             <a:t>亂數</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168165</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E91D8F0-1CFF-484A-8546-3766C8C5A034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3189889" y="614855"/>
+          <a:ext cx="2990193" cy="2191407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42042</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A876989-CF22-4CD5-BE7D-ADB6BF01C468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321270" y="1534510"/>
+          <a:ext cx="2732690" cy="1119352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Project_RSPImageRobot_20200801_0.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57807</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157654</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1073564" cy="459485"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文字方塊 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5B1563-1FCD-4D0D-B631-5D3D01CA2C7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150883" y="1671144"/>
+          <a:ext cx="1073564" cy="459485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t> YoloV3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>網路</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(.h5, .json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>檔案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141890</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文字方塊 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E463B14-B304-43AB-862D-343840DABBE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421118" y="756746"/>
+          <a:ext cx="1031051" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>遊戲顯示圖檔</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315311</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5256</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文字方塊 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E9C465-000B-462F-A8A7-A9DBD4DB0914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4687614" y="762001"/>
+          <a:ext cx="1172116" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>遊戲播放語音檔</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>478221</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>483476</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線單箭頭接點 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CFBB11-6419-4D15-AA96-A90A883AD3C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5397062" y="982717"/>
+          <a:ext cx="5255" cy="541283"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404649</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="文字方塊 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C98AC6C-7B15-4DEF-ADDE-905B37FEC8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5323490" y="1166648"/>
+          <a:ext cx="466794" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>讀取</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136634</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110359</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文字方塊 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEEED61-3CEA-4B5B-BCBC-7D6D3EFFEF79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="1245476"/>
+          <a:ext cx="466794" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>讀取</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173420</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>178675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線單箭頭接點 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99528F70-A13D-4D9A-B70F-3148C84125F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3999186" y="982717"/>
+          <a:ext cx="5255" cy="541283"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>399393</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120870</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線單箭頭接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B802D5-A012-4A6A-80C3-19B91483C338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2039007" y="1818290"/>
+          <a:ext cx="1261243" cy="5256"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>299545</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99848</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275909"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="文字方塊 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087AD136-A976-44A9-AD0F-6BA46766EF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2485697" y="1613338"/>
+          <a:ext cx="466794" cy="275909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>讀取</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9661,10 +14882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD98171-730C-427B-9561-C47199F1B237}">
-  <dimension ref="A3:B5"/>
+  <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -9691,10 +14912,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -9704,12 +14941,210 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45669C0-61AF-49BB-B89D-67E20793FFC6}">
+  <dimension ref="C2:L16"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6421C882-8E61-4DB3-AC7B-6C0FD533049C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AK74" sqref="AK74"/>
+    <sheetView topLeftCell="N28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD56" sqref="AD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -9722,30 +15157,1372 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE839B9-5339-4272-9E48-3D886B61A4E8}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0E9EF0-9C2E-4DA5-AFA7-EF3610FF83C1}">
-  <dimension ref="A1"/>
+  <dimension ref="C5:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9754,10 +16531,1275 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73D3181-23CB-4BEA-B7C3-B8261EBE67F4}">
+  <dimension ref="A7:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D746A824-4FF0-4244-9E5F-55D03B34F9C2}">
+  <dimension ref="B6:AF54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5FCFBD-0B23-4BE9-B8EB-88BD9FA2CA0D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9765,7 +17807,7 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9773,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9781,7 +17823,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9789,7 +17831,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9797,7 +17839,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9807,11 +17849,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D428982-7BDD-4C2F-85DB-9E58D5556DBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
